--- a/Art/Textures/图集对应表.xlsx
+++ b/Art/Textures/图集对应表.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\likehole\jk\Pxc-Game-Frame\CCCTmplModel\Art\Textures\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="60" windowWidth="28020" windowHeight="12945"/>
   </bookViews>
@@ -38,28 +43,29 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pxc_a1.png</t>
-  </si>
-  <si>
-    <t>pxc_a2.png</t>
-  </si>
-  <si>
-    <t>pxc_a3.png</t>
-  </si>
-  <si>
-    <t>pxc_small.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Basic</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pxc_small</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pxc_a1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pxc_a2</t>
+  </si>
+  <si>
+    <t>pxc_a3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,11 +122,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -162,7 +176,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -194,9 +208,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -228,6 +260,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -403,20 +453,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.625" customWidth="1"/>
     <col min="2" max="2" width="25.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -424,7 +474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -432,7 +482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -440,43 +490,47 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
         <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="B7" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -484,12 +538,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Art/Textures/图集对应表.xlsx
+++ b/Art/Textures/图集对应表.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\likehole\jk\Pxc-Game-Frame\CCCTmplModel\Art\Textures\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="60" windowWidth="28020" windowHeight="12945"/>
   </bookViews>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="80">
   <si>
     <t>Frame</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,13 +54,227 @@
   </si>
   <si>
     <t>pxc_a3</t>
+  </si>
+  <si>
+    <t>IsGlobal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否多国语言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>green_boxCheckmark.png</t>
+  </si>
+  <si>
+    <t>green_boxCross.png</t>
+  </si>
+  <si>
+    <t>green_boxTick.png</t>
+  </si>
+  <si>
+    <t>green_button00.png</t>
+  </si>
+  <si>
+    <t>green_button01.png</t>
+  </si>
+  <si>
+    <t>green_button02.png</t>
+  </si>
+  <si>
+    <t>green_button03.png</t>
+  </si>
+  <si>
+    <t>green_button04.png</t>
+  </si>
+  <si>
+    <t>green_button05.png</t>
+  </si>
+  <si>
+    <t>green_button06.png</t>
+  </si>
+  <si>
+    <t>green_button07.png</t>
+  </si>
+  <si>
+    <t>green_button08.png</t>
+  </si>
+  <si>
+    <t>green_button09.png</t>
+  </si>
+  <si>
+    <t>green_button10.png</t>
+  </si>
+  <si>
+    <t>green_button11.png</t>
+  </si>
+  <si>
+    <t>green_button12.png</t>
+  </si>
+  <si>
+    <t>green_button13.png</t>
+  </si>
+  <si>
+    <t>green_checkmark.png</t>
+  </si>
+  <si>
+    <t>green_circle.png</t>
+  </si>
+  <si>
+    <t>green_cross.png</t>
+  </si>
+  <si>
+    <t>green_panel.png</t>
+  </si>
+  <si>
+    <t>green_sliderDown.png</t>
+  </si>
+  <si>
+    <t>green_sliderLeft.png</t>
+  </si>
+  <si>
+    <t>green_sliderRight.png</t>
+  </si>
+  <si>
+    <t>green_sliderUp.png</t>
+  </si>
+  <si>
+    <t>green_tick.png</t>
+  </si>
+  <si>
+    <t>UITestGreen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grey_arrowDownGrey.png</t>
+  </si>
+  <si>
+    <t>grey_arrowDownWhite.png</t>
+  </si>
+  <si>
+    <t>grey_arrowUpGrey.png</t>
+  </si>
+  <si>
+    <t>grey_arrowUpWhite.png</t>
+  </si>
+  <si>
+    <t>grey_box.png</t>
+  </si>
+  <si>
+    <t>grey_boxCheckmark.png</t>
+  </si>
+  <si>
+    <t>grey_boxCross.png</t>
+  </si>
+  <si>
+    <t>grey_boxTick.png</t>
+  </si>
+  <si>
+    <t>grey_button00.png</t>
+  </si>
+  <si>
+    <t>grey_button01.png</t>
+  </si>
+  <si>
+    <t>grey_button02.png</t>
+  </si>
+  <si>
+    <t>grey_button03.png</t>
+  </si>
+  <si>
+    <t>grey_button04.png</t>
+  </si>
+  <si>
+    <t>grey_button05.png</t>
+  </si>
+  <si>
+    <t>grey_button06.png</t>
+  </si>
+  <si>
+    <t>grey_button07.png</t>
+  </si>
+  <si>
+    <t>grey_button08.png</t>
+  </si>
+  <si>
+    <t>grey_button09.png</t>
+  </si>
+  <si>
+    <t>grey_button10.png</t>
+  </si>
+  <si>
+    <t>grey_button11.png</t>
+  </si>
+  <si>
+    <t>grey_button12.png</t>
+  </si>
+  <si>
+    <t>grey_button13.png</t>
+  </si>
+  <si>
+    <t>grey_button14.png</t>
+  </si>
+  <si>
+    <t>grey_button15.png</t>
+  </si>
+  <si>
+    <t>grey_checkmarkGrey.png</t>
+  </si>
+  <si>
+    <t>grey_checkmarkWhite.png</t>
+  </si>
+  <si>
+    <t>grey_circle.png</t>
+  </si>
+  <si>
+    <t>grey_crossGrey.png</t>
+  </si>
+  <si>
+    <t>grey_crossWhite.png</t>
+  </si>
+  <si>
+    <t>grey_panel.png</t>
+  </si>
+  <si>
+    <t>grey_sliderDown.png</t>
+  </si>
+  <si>
+    <t>grey_sliderEnd.png</t>
+  </si>
+  <si>
+    <t>grey_sliderHorizontal.png</t>
+  </si>
+  <si>
+    <t>grey_sliderLeft.png</t>
+  </si>
+  <si>
+    <t>grey_sliderRight.png</t>
+  </si>
+  <si>
+    <t>grey_sliderUp.png</t>
+  </si>
+  <si>
+    <t>grey_sliderVertical.png</t>
+  </si>
+  <si>
+    <t>grey_tickGrey.png</t>
+  </si>
+  <si>
+    <t>grey_tickWhite.png</t>
+  </si>
+  <si>
+    <t>UITestGrey</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,11 +318,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -122,19 +337,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -176,7 +383,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -208,27 +415,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -260,24 +449,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -453,68 +624,619 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="21.625" customWidth="1"/>
     <col min="2" max="2" width="25.875" customWidth="1"/>
+    <col min="3" max="3" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="B6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="B7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="B8" t="s">
         <v>9</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="B11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="B12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="B27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="B28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3">
+      <c r="B29" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3">
+      <c r="B30" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3">
+      <c r="B31" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3">
+      <c r="B32" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="B33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="B34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="B36" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="B37" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="B38" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="B39" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="B40" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="B41" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="B42" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="B43" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="B44" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="B45" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="B46" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="B47" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="B48" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3">
+      <c r="B49" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3">
+      <c r="B50" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3">
+      <c r="B51" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3">
+      <c r="B52" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3">
+      <c r="B53" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3">
+      <c r="B54" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3">
+      <c r="B55" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C55" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3">
+      <c r="B56" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C56" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3">
+      <c r="B57" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3">
+      <c r="B58" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3">
+      <c r="B59" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3">
+      <c r="B60" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3">
+      <c r="B61" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3">
+      <c r="B62" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3">
+      <c r="B63" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3">
+      <c r="B64" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3">
+      <c r="B65" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3">
+      <c r="B66" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3">
+      <c r="B67" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C67" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3">
+      <c r="B68" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3">
+      <c r="B69" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3">
+      <c r="B70" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3">
+      <c r="B71" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3">
+      <c r="B72" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3">
+      <c r="B73" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C73" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -525,12 +1247,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -538,12 +1260,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
